--- a/AAII_Financials/Quarterly/HLGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>HLGN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,36 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
-        <v>44377</v>
-      </c>
       <c r="F7" s="2">
-        <v>44286</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44104</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -710,51 +708,57 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>5200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,22 +772,25 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -797,8 +804,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,22 +820,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -839,8 +850,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,37 +882,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>6500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +946,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,22 +959,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1600</v>
+        <v>30800</v>
       </c>
       <c r="E17" s="3">
-        <v>1900</v>
+        <v>14700</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -965,22 +989,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-25600</v>
       </c>
       <c r="E18" s="3">
-        <v>-1900</v>
+        <v>-12500</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-3100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1021,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,22 +1037,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-27900</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>-15800</v>
       </c>
       <c r="F20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,19 +1067,22 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-53200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3">
+        <v>-3000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1065,16 +1099,19 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1082,34 +1119,37 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5800</v>
+        <v>-53500</v>
       </c>
       <c r="E23" s="3">
-        <v>1000</v>
+        <v>-28300</v>
       </c>
       <c r="F23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-3100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1163,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1140,20 +1183,23 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,22 +1227,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5800</v>
+        <v>-53500</v>
       </c>
       <c r="E26" s="3">
-        <v>1000</v>
+        <v>-28300</v>
       </c>
       <c r="F26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-3100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1210,22 +1259,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5800</v>
+        <v>-53500</v>
       </c>
       <c r="E27" s="3">
-        <v>1000</v>
+        <v>-28300</v>
       </c>
       <c r="F27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-3100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1291,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1323,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1355,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1387,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,22 +1419,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>27900</v>
       </c>
       <c r="E32" s="3">
-        <v>-3000</v>
+        <v>15800</v>
       </c>
       <c r="F32" s="3">
-        <v>700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,22 +1451,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5800</v>
+        <v>-53500</v>
       </c>
       <c r="E33" s="3">
-        <v>1000</v>
+        <v>-28300</v>
       </c>
       <c r="F33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-3100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1483,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,22 +1515,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5800</v>
+        <v>-53500</v>
       </c>
       <c r="E35" s="3">
-        <v>1000</v>
+        <v>-28300</v>
       </c>
       <c r="F35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-3100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1471,27 +1547,30 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
-        <v>44377</v>
-      </c>
       <c r="F38" s="2">
-        <v>44286</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44104</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
@@ -1505,8 +1584,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1600,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,19 +1614,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>190100</v>
       </c>
       <c r="E41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1900</v>
+        <v>40100</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1560,66 +1644,75 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>32300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>36900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,19 +1740,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1676,19 +1772,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>227200</v>
       </c>
       <c r="E46" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2400</v>
+        <v>78400</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1705,95 +1804,107 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>250000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>20200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>18500</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>4300</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1932,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,19 +1964,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>5900</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+        <v>5500</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +1996,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,19 +2028,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>250600</v>
+        <v>257400</v>
       </c>
       <c r="E54" s="3">
-        <v>252200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>252400</v>
+        <v>106700</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2060,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2076,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,37 +2090,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,37 +2134,40 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2600</v>
+        <v>12700</v>
       </c>
       <c r="E59" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
+        <v>6400</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2050,19 +2184,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2600</v>
+        <v>17300</v>
       </c>
       <c r="E60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>900</v>
+        <v>8500</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2079,8 +2216,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,19 +2248,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20400</v>
+        <v>30800</v>
       </c>
       <c r="E62" s="3">
-        <v>16200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>19200</v>
+        <v>166400</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2280,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2312,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2344,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,19 +2376,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23000</v>
+        <v>48200</v>
       </c>
       <c r="E66" s="3">
-        <v>18800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>20100</v>
+        <v>174900</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2408,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2424,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2454,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2486,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2333,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>45900</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2353,8 +2518,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,19 +2550,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-22400</v>
+        <v>-171400</v>
       </c>
       <c r="E72" s="3">
-        <v>300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-800</v>
+        <v>-117800</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2582,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2614,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2646,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,19 +2678,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>227600</v>
+        <v>209300</v>
       </c>
       <c r="E76" s="3">
-        <v>233400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>232400</v>
+        <v>-114200</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2710,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,27 +2742,30 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
-        <v>44377</v>
-      </c>
       <c r="F80" s="2">
-        <v>44286</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44104</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
@@ -2590,22 +2779,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5800</v>
+        <v>-53500</v>
       </c>
       <c r="E81" s="3">
-        <v>1000</v>
+        <v>-28300</v>
       </c>
       <c r="F81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-3100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2811,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +2827,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2889,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2921,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2953,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2985,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,19 +3017,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
+        <v>-12900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3049,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3065,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3127,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,19 +3159,22 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>-250000</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3191,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3207,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3237,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3269,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3301,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,19 +3333,22 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+        <v>161100</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>251900</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3365,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,19 +3397,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
+        <v>150000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>1900</v>
+        <v>-2800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3427,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>HLGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,126 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F8" s="3">
         <v>5200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8" s="3">
+        <v>800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4500</v>
+        <v>2400</v>
       </c>
       <c r="E9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="H9" s="3">
+        <v>800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -775,31 +792,37 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -807,8 +830,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,40 +850,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F12" s="3">
         <v>4600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
-        <v>700</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,25 +922,31 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -911,14 +954,20 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -949,8 +998,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -960,72 +1015,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30800</v>
+        <v>31100</v>
       </c>
       <c r="E17" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>26000</v>
+      </c>
+      <c r="G17" s="3">
         <v>14700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-25600</v>
+        <v>-28700</v>
       </c>
       <c r="E18" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-12500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1038,31 +1107,33 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-27900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-15800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1070,40 +1141,52 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-53200</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-19600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-58800</v>
       </c>
       <c r="F21" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1113,11 +1196,11 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1125,57 +1208,69 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-53500</v>
+        <v>-20300</v>
       </c>
       <c r="E23" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-28300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1183,23 +1278,29 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,72 +1331,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-53500</v>
+        <v>-20200</v>
       </c>
       <c r="E26" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-28300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-53500</v>
+        <v>-20200</v>
       </c>
       <c r="E27" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-28300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1326,8 +1445,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,8 +1483,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1390,8 +1521,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,31 +1559,37 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F32" s="3">
         <v>27900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>15800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>49400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1454,40 +1597,52 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-53500</v>
+        <v>-20200</v>
       </c>
       <c r="E33" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-28300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1518,77 +1673,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-53500</v>
+        <v>-20200</v>
       </c>
       <c r="E35" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-28300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1601,8 +1774,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1615,23 +1790,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>63600</v>
+      </c>
+      <c r="F41" s="3">
         <v>190100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>40100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,23 +1824,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>128300</v>
+      </c>
+      <c r="F42" s="3">
         <v>32300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>36900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,29 +1856,35 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,14 +1894,20 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1743,23 +1938,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,23 +1976,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>212900</v>
+      </c>
+      <c r="F46" s="3">
         <v>227200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>78400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,8 +2014,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1833,29 +2046,35 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F48" s="3">
         <v>20200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>18500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1865,29 +2084,35 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F49" s="3">
         <v>4200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1897,14 +2122,20 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1935,8 +2166,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1967,23 +2204,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2242,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2031,23 +2280,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>237600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>256200</v>
+      </c>
+      <c r="F54" s="3">
         <v>257400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>106700</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2063,8 +2318,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2077,8 +2338,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2091,23 +2354,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2117,28 +2382,34 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2149,29 +2420,35 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12700</v>
+        <v>45200</v>
       </c>
       <c r="E59" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,23 +2464,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17300</v>
+        <v>49200</v>
       </c>
       <c r="E60" s="3">
+        <v>50600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G60" s="3">
         <v>8500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,8 +2502,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2251,23 +2540,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F62" s="3">
         <v>30800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>166400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2283,8 +2578,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2315,8 +2616,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,8 +2654,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2379,23 +2692,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48200</v>
+        <v>68600</v>
       </c>
       <c r="E66" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>43400</v>
+      </c>
+      <c r="G66" s="3">
         <v>174900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2730,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2425,8 +2750,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2457,8 +2784,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2489,8 +2822,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2498,14 +2837,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>45900</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2521,8 +2860,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2553,23 +2898,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-171400</v>
+        <v>-245800</v>
       </c>
       <c r="E72" s="3">
+        <v>-225500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-166600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-117800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2936,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2617,8 +2974,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2649,8 +3012,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2681,23 +3050,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>209300</v>
+        <v>168900</v>
       </c>
       <c r="E76" s="3">
+        <v>177300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>214100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-114200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +3088,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2745,77 +3126,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-53500</v>
+        <v>-20200</v>
       </c>
       <c r="E81" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-28300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2828,40 +3227,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>800</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2892,8 +3299,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2924,8 +3337,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2956,8 +3375,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2988,8 +3413,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3020,40 +3451,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12900</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3066,40 +3509,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3130,8 +3581,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3162,40 +3619,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-102700</v>
+      </c>
+      <c r="F94" s="3">
         <v>1800</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3208,8 +3677,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3240,8 +3711,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3272,8 +3749,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3304,8 +3787,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3336,31 +3825,37 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>161100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3368,8 +3863,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3400,36 +3901,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-126500</v>
+      </c>
+      <c r="F102" s="3">
         <v>150000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>44600</v>
+      </c>
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>HLGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,72 +723,78 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
@@ -798,34 +805,37 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,35 +865,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4600</v>
       </c>
       <c r="G12" s="3">
         <v>4600</v>
       </c>
       <c r="H12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I12" s="3">
         <v>2700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -937,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>33700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -960,14 +980,17 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E17" s="3">
         <v>31100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>67300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,35 +1082,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-63800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,34 +1142,35 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>8400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-15800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-49400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1147,35 +1181,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-58800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-48500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-56300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1208,50 +1248,53 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-59600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-48700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-56300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,20 +1304,23 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1287,20 +1333,23 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-59000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-48700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-59000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-48700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,34 +1632,37 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>49400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1603,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-59000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-48700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-56300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-59000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-48700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-56300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,26 +1878,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E41" s="3">
         <v>60700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>63600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>190100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,26 +1917,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E42" s="3">
         <v>115100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>128300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>32300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>36900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1862,32 +1952,35 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1900,14 +1993,17 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,26 +2040,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E45" s="3">
         <v>8200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,26 +2081,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E46" s="3">
         <v>189800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>212900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>227200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>78400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2052,32 +2157,35 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E48" s="3">
         <v>22000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2090,32 +2198,35 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E49" s="3">
         <v>4500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,14 +2239,17 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,26 +2327,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E52" s="3">
         <v>21200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,26 +2409,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E54" s="3">
         <v>237600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>256200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>257400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>106700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,26 +2486,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,14 +2519,17 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,14 +2539,14 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2426,32 +2560,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E59" s="3">
         <v>45200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,26 +2607,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E60" s="3">
         <v>49200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,26 +2689,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E62" s="3">
         <v>19500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>30800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>166400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,26 +2853,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E66" s="3">
         <v>68600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>174900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2843,11 +3011,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>45900</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,26 +3075,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-273600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-245800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-225500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-166600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-117800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,26 +3239,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>151300</v>
+      </c>
+      <c r="E76" s="3">
         <v>168900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>177300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>214100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-114200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-59000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-48700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-56300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,22 +3427,23 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3253,22 +3452,25 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3671,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,35 +3852,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>6100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-102700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,34 +4074,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>161100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,35 +4156,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-126500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>150000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>HLGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I9" s="3">
         <v>6200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -808,40 +821,46 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
         <v>-300</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
@@ -849,8 +868,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +891,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F12" s="3">
         <v>11200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I12" s="3">
         <v>4600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,34 +981,40 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>33700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -983,14 +1022,20 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1075,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1095,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>42700</v>
+      </c>
+      <c r="F17" s="3">
         <v>32900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>31100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>67300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>26000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>14700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-29800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-28700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-63800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-20800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,40 +1208,42 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>8400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-27900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-15800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-49400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1184,49 +1251,61 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-27000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-19600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-58800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-48500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-28100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-56300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1251,64 +1330,76 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-27900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-20300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-59600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-48700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-28300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-56300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1316,17 +1407,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1336,20 +1427,26 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1486,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-27800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-20200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-59000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-48700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-28300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-56300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-20200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-59000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-48700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-28300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-56300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1627,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1721,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,40 +1768,46 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-8400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>27900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>15800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>49400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1676,49 +1815,61 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-20200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-59000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-48700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-28300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-56300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1909,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-20200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-59000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-48700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-28300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-56300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2031,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,32 +2050,34 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F41" s="3">
         <v>35400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>60700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>63600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>190100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>40100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,32 +2093,38 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>97500</v>
+      </c>
+      <c r="F42" s="3">
         <v>124000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>115100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>128300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>32300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>36900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1955,38 +2134,44 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F43" s="3">
         <v>6600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>13700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,37 +2181,43 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>2400</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2043,32 +2234,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,32 +2281,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>158800</v>
+      </c>
+      <c r="F46" s="3">
         <v>172800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>189800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>212900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>227200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>78400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2328,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2160,38 +2369,44 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F48" s="3">
         <v>25300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>22000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>20600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>20200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>18500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2201,38 +2416,44 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F49" s="3">
         <v>4200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2242,14 +2463,20 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2516,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,32 +2563,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F52" s="3">
         <v>15300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>21200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>17600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2610,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2657,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>191600</v>
+      </c>
+      <c r="F54" s="3">
         <v>217600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>237600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>256200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>257400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>106700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2704,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2727,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2746,34 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="E57" s="3">
-        <v>3900</v>
+        <v>6900</v>
       </c>
       <c r="F57" s="3">
         <v>2300</v>
       </c>
       <c r="G57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2522,14 +2783,20 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2542,17 +2809,17 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2563,38 +2830,44 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F59" s="3">
         <v>46500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>45200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>48300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2883,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F60" s="3">
         <v>48800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>49200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>50600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2930,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,32 +2977,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F62" s="3">
         <v>17500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>19500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>28200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>30800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>166400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +3024,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3071,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3118,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,32 +3165,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E66" s="3">
         <v>66300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>66300</v>
+      </c>
+      <c r="G66" s="3">
         <v>68600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>78900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>43400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>174900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3212,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3235,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3278,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3325,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,14 +3349,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>45900</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3372,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3419,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-319100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-308600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-273600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-245800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-225500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-166600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-117800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3466,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3513,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3560,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3607,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>125300</v>
+      </c>
+      <c r="F76" s="3">
         <v>151300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>168900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>177300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>214100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-114200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3654,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3701,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-20200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-59000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-48700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-28300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-56300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,49 +3823,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>800</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>800</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3913,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3960,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4007,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4054,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +4101,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-18200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-22700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-9600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +4171,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4261,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4308,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>6100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-102700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-10700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-27800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4378,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4421,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4468,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4515,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,40 +4562,46 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>161100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>10100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>73000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4118,8 +4609,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4656,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-25600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-126500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>150000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-12800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-8500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>44600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>HLGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,90 +734,96 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3400</v>
       </c>
       <c r="F9" s="3">
         <v>3400</v>
       </c>
       <c r="G9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
@@ -827,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,34 +846,34 @@
         <v>-100</v>
       </c>
       <c r="E10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-4100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,44 +906,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
         <v>5300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4600</v>
       </c>
       <c r="J12" s="3">
         <v>4600</v>
       </c>
       <c r="K12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L12" s="3">
         <v>2700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,37 +1004,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>33700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1028,14 +1048,17 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1123,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>67300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,44 +1171,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-38000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-63800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,43 +1243,44 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-49400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1257,44 +1291,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-34900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-58800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-48500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-28100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-56300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1336,59 +1376,62 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-59600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-48700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-56300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,8 +1441,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1407,20 +1453,20 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1433,20 +1479,23 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1541,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-35000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-59000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-48700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-56300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1591,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-35000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-59000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-48700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-56300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,43 +1841,46 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>49400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1821,44 +1891,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-35000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-59000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-48700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-56300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +1991,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-35000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-59000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-48700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-56300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,35 +2138,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E41" s="3">
         <v>39200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>60700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>63600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>190100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,35 +2186,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E42" s="3">
         <v>80700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>97500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>124000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>115100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>128300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>32300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>36900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,41 +2230,44 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E43" s="3">
         <v>10600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,26 +2280,29 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E44" s="3">
         <v>2900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2400</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,8 +2315,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2240,35 +2336,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,35 +2386,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E46" s="3">
         <v>139100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>158800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>172800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>189800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>212900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>227200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2375,41 +2480,44 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E48" s="3">
         <v>21200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2422,14 +2530,17 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2437,26 +2548,26 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,14 +2580,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,35 +2686,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,35 +2786,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E54" s="3">
         <v>170000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>191600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>217600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>237600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>256200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>257400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>106700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,35 +2878,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2789,14 +2920,17 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2815,14 +2949,14 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2836,41 +2970,44 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E59" s="3">
         <v>45300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,35 +3026,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E60" s="3">
         <v>48600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3076,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,35 +3126,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E62" s="3">
         <v>15400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>30800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>166400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,35 +3326,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E66" s="3">
         <v>63900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>66300</v>
       </c>
       <c r="F66" s="3">
         <v>66300</v>
       </c>
       <c r="G66" s="3">
+        <v>66300</v>
+      </c>
+      <c r="H66" s="3">
         <v>68600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>174900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3355,11 +3523,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>45900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,35 +3596,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-340800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-319100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-308600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-273600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-245800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-225500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-166600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-117800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,35 +3796,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E76" s="3">
         <v>106000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>125300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>151300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>168900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>177300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>214100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-114200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +3951,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-35000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-59000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-48700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-56300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3834,22 +4033,22 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -3858,22 +4057,25 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4321,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,55 +4393,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,44 +4541,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E94" s="3">
         <v>17300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>30400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-102700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,43 +4811,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>161100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>73000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,44 +4911,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-126500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>150000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
